--- a/RAD AT2 - Gantt.xlsx
+++ b/RAD AT2 - Gantt.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{41FE225D-22BF-47B0-9482-2543BEDF3642}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C48B2D-967C-45E2-8F2F-0870635B62C1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -863,6 +863,18 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="12">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
@@ -870,18 +882,6 @@
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
@@ -1452,7 +1452,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1503,341 +1503,341 @@
       <c r="B3" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="76" t="s">
+      <c r="C3" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="77"/>
-      <c r="E3" s="82">
+      <c r="D3" s="81"/>
+      <c r="E3" s="79">
         <f ca="1">TODAY()</f>
-        <v>43980</v>
-      </c>
-      <c r="F3" s="82"/>
+        <v>43985</v>
+      </c>
+      <c r="F3" s="79"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="76" t="s">
+      <c r="C4" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="77"/>
+      <c r="D4" s="81"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="79">
+      <c r="I4" s="76">
         <f ca="1">I5</f>
-        <v>43976</v>
-      </c>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="80"/>
-      <c r="N4" s="80"/>
-      <c r="O4" s="81"/>
-      <c r="P4" s="79">
+        <v>43983</v>
+      </c>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="78"/>
+      <c r="P4" s="76">
         <f ca="1">P5</f>
-        <v>43983</v>
-      </c>
-      <c r="Q4" s="80"/>
-      <c r="R4" s="80"/>
-      <c r="S4" s="80"/>
-      <c r="T4" s="80"/>
-      <c r="U4" s="80"/>
-      <c r="V4" s="81"/>
-      <c r="W4" s="79">
+        <v>43990</v>
+      </c>
+      <c r="Q4" s="77"/>
+      <c r="R4" s="77"/>
+      <c r="S4" s="77"/>
+      <c r="T4" s="77"/>
+      <c r="U4" s="77"/>
+      <c r="V4" s="78"/>
+      <c r="W4" s="76">
         <f ca="1">W5</f>
-        <v>43990</v>
-      </c>
-      <c r="X4" s="80"/>
-      <c r="Y4" s="80"/>
-      <c r="Z4" s="80"/>
-      <c r="AA4" s="80"/>
-      <c r="AB4" s="80"/>
-      <c r="AC4" s="81"/>
-      <c r="AD4" s="79">
+        <v>43997</v>
+      </c>
+      <c r="X4" s="77"/>
+      <c r="Y4" s="77"/>
+      <c r="Z4" s="77"/>
+      <c r="AA4" s="77"/>
+      <c r="AB4" s="77"/>
+      <c r="AC4" s="78"/>
+      <c r="AD4" s="76">
         <f ca="1">AD5</f>
-        <v>43997</v>
-      </c>
-      <c r="AE4" s="80"/>
-      <c r="AF4" s="80"/>
-      <c r="AG4" s="80"/>
-      <c r="AH4" s="80"/>
-      <c r="AI4" s="80"/>
-      <c r="AJ4" s="81"/>
-      <c r="AK4" s="79">
+        <v>44004</v>
+      </c>
+      <c r="AE4" s="77"/>
+      <c r="AF4" s="77"/>
+      <c r="AG4" s="77"/>
+      <c r="AH4" s="77"/>
+      <c r="AI4" s="77"/>
+      <c r="AJ4" s="78"/>
+      <c r="AK4" s="76">
         <f ca="1">AK5</f>
-        <v>44004</v>
-      </c>
-      <c r="AL4" s="80"/>
-      <c r="AM4" s="80"/>
-      <c r="AN4" s="80"/>
-      <c r="AO4" s="80"/>
-      <c r="AP4" s="80"/>
-      <c r="AQ4" s="81"/>
-      <c r="AR4" s="79">
+        <v>44011</v>
+      </c>
+      <c r="AL4" s="77"/>
+      <c r="AM4" s="77"/>
+      <c r="AN4" s="77"/>
+      <c r="AO4" s="77"/>
+      <c r="AP4" s="77"/>
+      <c r="AQ4" s="78"/>
+      <c r="AR4" s="76">
         <f ca="1">AR5</f>
-        <v>44011</v>
-      </c>
-      <c r="AS4" s="80"/>
-      <c r="AT4" s="80"/>
-      <c r="AU4" s="80"/>
-      <c r="AV4" s="80"/>
-      <c r="AW4" s="80"/>
-      <c r="AX4" s="81"/>
-      <c r="AY4" s="79">
+        <v>44018</v>
+      </c>
+      <c r="AS4" s="77"/>
+      <c r="AT4" s="77"/>
+      <c r="AU4" s="77"/>
+      <c r="AV4" s="77"/>
+      <c r="AW4" s="77"/>
+      <c r="AX4" s="78"/>
+      <c r="AY4" s="76">
         <f ca="1">AY5</f>
-        <v>44018</v>
-      </c>
-      <c r="AZ4" s="80"/>
-      <c r="BA4" s="80"/>
-      <c r="BB4" s="80"/>
-      <c r="BC4" s="80"/>
-      <c r="BD4" s="80"/>
-      <c r="BE4" s="81"/>
-      <c r="BF4" s="79">
+        <v>44025</v>
+      </c>
+      <c r="AZ4" s="77"/>
+      <c r="BA4" s="77"/>
+      <c r="BB4" s="77"/>
+      <c r="BC4" s="77"/>
+      <c r="BD4" s="77"/>
+      <c r="BE4" s="78"/>
+      <c r="BF4" s="76">
         <f ca="1">BF5</f>
-        <v>44025</v>
-      </c>
-      <c r="BG4" s="80"/>
-      <c r="BH4" s="80"/>
-      <c r="BI4" s="80"/>
-      <c r="BJ4" s="80"/>
-      <c r="BK4" s="80"/>
-      <c r="BL4" s="81"/>
+        <v>44032</v>
+      </c>
+      <c r="BG4" s="77"/>
+      <c r="BH4" s="77"/>
+      <c r="BI4" s="77"/>
+      <c r="BJ4" s="77"/>
+      <c r="BK4" s="77"/>
+      <c r="BL4" s="78"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
       <c r="I5" s="11">
         <f ca="1">Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
-        <v>43976</v>
+        <v>43983</v>
       </c>
       <c r="J5" s="10">
         <f ca="1">I5+1</f>
-        <v>43977</v>
+        <v>43984</v>
       </c>
       <c r="K5" s="10">
         <f t="shared" ref="K5:AX5" ca="1" si="0">J5+1</f>
-        <v>43978</v>
+        <v>43985</v>
       </c>
       <c r="L5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>43979</v>
+        <v>43986</v>
       </c>
       <c r="M5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>43980</v>
+        <v>43987</v>
       </c>
       <c r="N5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>43981</v>
+        <v>43988</v>
       </c>
       <c r="O5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43982</v>
+        <v>43989</v>
       </c>
       <c r="P5" s="11">
         <f ca="1">O5+1</f>
-        <v>43983</v>
+        <v>43990</v>
       </c>
       <c r="Q5" s="10">
         <f ca="1">P5+1</f>
-        <v>43984</v>
+        <v>43991</v>
       </c>
       <c r="R5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>43985</v>
+        <v>43992</v>
       </c>
       <c r="S5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>43986</v>
+        <v>43993</v>
       </c>
       <c r="T5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>43987</v>
+        <v>43994</v>
       </c>
       <c r="U5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>43988</v>
+        <v>43995</v>
       </c>
       <c r="V5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43989</v>
+        <v>43996</v>
       </c>
       <c r="W5" s="11">
         <f ca="1">V5+1</f>
-        <v>43990</v>
+        <v>43997</v>
       </c>
       <c r="X5" s="10">
         <f ca="1">W5+1</f>
-        <v>43991</v>
+        <v>43998</v>
       </c>
       <c r="Y5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>43992</v>
+        <v>43999</v>
       </c>
       <c r="Z5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>43993</v>
+        <v>44000</v>
       </c>
       <c r="AA5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>43994</v>
+        <v>44001</v>
       </c>
       <c r="AB5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>43995</v>
+        <v>44002</v>
       </c>
       <c r="AC5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43996</v>
+        <v>44003</v>
       </c>
       <c r="AD5" s="11">
         <f ca="1">AC5+1</f>
-        <v>43997</v>
+        <v>44004</v>
       </c>
       <c r="AE5" s="10">
         <f ca="1">AD5+1</f>
-        <v>43998</v>
+        <v>44005</v>
       </c>
       <c r="AF5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>43999</v>
+        <v>44006</v>
       </c>
       <c r="AG5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44000</v>
+        <v>44007</v>
       </c>
       <c r="AH5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44001</v>
+        <v>44008</v>
       </c>
       <c r="AI5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44002</v>
+        <v>44009</v>
       </c>
       <c r="AJ5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>44003</v>
+        <v>44010</v>
       </c>
       <c r="AK5" s="11">
         <f ca="1">AJ5+1</f>
-        <v>44004</v>
+        <v>44011</v>
       </c>
       <c r="AL5" s="10">
         <f ca="1">AK5+1</f>
-        <v>44005</v>
+        <v>44012</v>
       </c>
       <c r="AM5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44006</v>
+        <v>44013</v>
       </c>
       <c r="AN5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44007</v>
+        <v>44014</v>
       </c>
       <c r="AO5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44008</v>
+        <v>44015</v>
       </c>
       <c r="AP5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44009</v>
+        <v>44016</v>
       </c>
       <c r="AQ5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>44010</v>
+        <v>44017</v>
       </c>
       <c r="AR5" s="11">
         <f ca="1">AQ5+1</f>
-        <v>44011</v>
+        <v>44018</v>
       </c>
       <c r="AS5" s="10">
         <f ca="1">AR5+1</f>
-        <v>44012</v>
+        <v>44019</v>
       </c>
       <c r="AT5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44013</v>
+        <v>44020</v>
       </c>
       <c r="AU5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44014</v>
+        <v>44021</v>
       </c>
       <c r="AV5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44015</v>
+        <v>44022</v>
       </c>
       <c r="AW5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44016</v>
+        <v>44023</v>
       </c>
       <c r="AX5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>44017</v>
+        <v>44024</v>
       </c>
       <c r="AY5" s="11">
         <f ca="1">AX5+1</f>
-        <v>44018</v>
+        <v>44025</v>
       </c>
       <c r="AZ5" s="10">
         <f ca="1">AY5+1</f>
-        <v>44019</v>
+        <v>44026</v>
       </c>
       <c r="BA5" s="10">
         <f t="shared" ref="BA5:BE5" ca="1" si="1">AZ5+1</f>
-        <v>44020</v>
+        <v>44027</v>
       </c>
       <c r="BB5" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44021</v>
+        <v>44028</v>
       </c>
       <c r="BC5" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44022</v>
+        <v>44029</v>
       </c>
       <c r="BD5" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44023</v>
+        <v>44030</v>
       </c>
       <c r="BE5" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>44024</v>
+        <v>44031</v>
       </c>
       <c r="BF5" s="11">
         <f ca="1">BE5+1</f>
-        <v>44025</v>
+        <v>44032</v>
       </c>
       <c r="BG5" s="10">
         <f ca="1">BF5+1</f>
-        <v>44026</v>
+        <v>44033</v>
       </c>
       <c r="BH5" s="10">
         <f t="shared" ref="BH5:BL5" ca="1" si="2">BG5+1</f>
-        <v>44027</v>
+        <v>44034</v>
       </c>
       <c r="BI5" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44028</v>
+        <v>44035</v>
       </c>
       <c r="BJ5" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44029</v>
+        <v>44036</v>
       </c>
       <c r="BK5" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44030</v>
+        <v>44037</v>
       </c>
       <c r="BL5" s="12">
         <f t="shared" ca="1" si="2"/>
-        <v>44031</v>
+        <v>44038</v>
       </c>
     </row>
     <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2243,11 +2243,11 @@
       </c>
       <c r="E9" s="61">
         <f ca="1">Project_Start</f>
-        <v>43980</v>
+        <v>43985</v>
       </c>
       <c r="F9" s="61">
         <f ca="1">E9+5</f>
-        <v>43985</v>
+        <v>43990</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="17">
@@ -2326,11 +2326,11 @@
       </c>
       <c r="E10" s="61">
         <f ca="1">E9</f>
-        <v>43980</v>
+        <v>43985</v>
       </c>
       <c r="F10" s="61">
         <f ca="1">F9</f>
-        <v>43985</v>
+        <v>43990</v>
       </c>
       <c r="G10" s="17"/>
       <c r="H10" s="17">
@@ -2402,14 +2402,16 @@
       <c r="C11" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="22"/>
+      <c r="D11" s="22">
+        <v>1</v>
+      </c>
       <c r="E11" s="61">
         <f ca="1">E9</f>
-        <v>43980</v>
+        <v>43985</v>
       </c>
       <c r="F11" s="61">
         <f ca="1">F9</f>
-        <v>43985</v>
+        <v>43990</v>
       </c>
       <c r="G11" s="17"/>
       <c r="H11" s="17">
@@ -2481,14 +2483,16 @@
       <c r="C12" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="22"/>
+      <c r="D12" s="22">
+        <v>1</v>
+      </c>
       <c r="E12" s="61">
         <f ca="1">E9</f>
-        <v>43980</v>
+        <v>43985</v>
       </c>
       <c r="F12" s="61">
         <f ca="1">F9</f>
-        <v>43985</v>
+        <v>43990</v>
       </c>
       <c r="G12" s="17"/>
       <c r="H12" s="17">
@@ -2560,14 +2564,16 @@
       <c r="C13" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="22"/>
+      <c r="D13" s="22">
+        <v>1</v>
+      </c>
       <c r="E13" s="61">
         <f ca="1">E9</f>
-        <v>43980</v>
+        <v>43985</v>
       </c>
       <c r="F13" s="61">
         <f ca="1">F9</f>
-        <v>43985</v>
+        <v>43990</v>
       </c>
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
@@ -2636,14 +2642,16 @@
       <c r="C14" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="22"/>
+      <c r="D14" s="22">
+        <v>1</v>
+      </c>
       <c r="E14" s="61">
         <f ca="1">E9</f>
-        <v>43980</v>
+        <v>43985</v>
       </c>
       <c r="F14" s="61">
         <f ca="1">F9</f>
-        <v>43985</v>
+        <v>43990</v>
       </c>
       <c r="G14" s="17"/>
       <c r="H14" s="17">
@@ -2789,7 +2797,7 @@
       <c r="D16" s="27"/>
       <c r="E16" s="62">
         <f ca="1">F9</f>
-        <v>43985</v>
+        <v>43990</v>
       </c>
       <c r="F16" s="62">
         <v>43992</v>
@@ -2797,7 +2805,7 @@
       <c r="G16" s="17"/>
       <c r="H16" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I16" s="39"/>
       <c r="J16" s="39"/>
@@ -2865,7 +2873,7 @@
       <c r="D17" s="27"/>
       <c r="E17" s="62">
         <f ca="1">F9</f>
-        <v>43985</v>
+        <v>43990</v>
       </c>
       <c r="F17" s="62">
         <f>F16</f>
@@ -2874,7 +2882,7 @@
       <c r="G17" s="17"/>
       <c r="H17" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I17" s="39"/>
       <c r="J17" s="39"/>
@@ -2942,7 +2950,7 @@
       <c r="D18" s="27"/>
       <c r="E18" s="62">
         <f ca="1">F9</f>
-        <v>43985</v>
+        <v>43990</v>
       </c>
       <c r="F18" s="62">
         <f>F16</f>
@@ -2951,7 +2959,7 @@
       <c r="G18" s="17"/>
       <c r="H18" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I18" s="39"/>
       <c r="J18" s="39"/>
@@ -3019,7 +3027,7 @@
       <c r="D19" s="27"/>
       <c r="E19" s="62">
         <f ca="1">E18</f>
-        <v>43985</v>
+        <v>43990</v>
       </c>
       <c r="F19" s="62">
         <f>F16</f>
@@ -3028,7 +3036,7 @@
       <c r="G19" s="17"/>
       <c r="H19" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I19" s="39"/>
       <c r="J19" s="39"/>
@@ -3096,7 +3104,7 @@
       <c r="D20" s="27"/>
       <c r="E20" s="62">
         <f ca="1">E19</f>
-        <v>43985</v>
+        <v>43990</v>
       </c>
       <c r="F20" s="62">
         <f>F16</f>
@@ -3105,7 +3113,7 @@
       <c r="G20" s="17"/>
       <c r="H20" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I20" s="39"/>
       <c r="J20" s="39"/>
@@ -3246,11 +3254,11 @@
       <c r="D22" s="32"/>
       <c r="E22" s="63">
         <f ca="1">E9+15</f>
-        <v>43995</v>
+        <v>44000</v>
       </c>
       <c r="F22" s="63">
         <f ca="1">E22+5</f>
-        <v>44000</v>
+        <v>44005</v>
       </c>
       <c r="G22" s="17"/>
       <c r="H22" s="17">
@@ -3323,11 +3331,11 @@
       <c r="D23" s="32"/>
       <c r="E23" s="63">
         <f ca="1">F22+1</f>
-        <v>44001</v>
+        <v>44006</v>
       </c>
       <c r="F23" s="63">
         <f ca="1">E23+4</f>
-        <v>44005</v>
+        <v>44010</v>
       </c>
       <c r="G23" s="17"/>
       <c r="H23" s="17">
@@ -3400,11 +3408,11 @@
       <c r="D24" s="32"/>
       <c r="E24" s="63">
         <f ca="1">E23+5</f>
-        <v>44006</v>
+        <v>44011</v>
       </c>
       <c r="F24" s="63">
         <f ca="1">E24+5</f>
-        <v>44011</v>
+        <v>44016</v>
       </c>
       <c r="G24" s="17"/>
       <c r="H24" s="17">
@@ -3477,11 +3485,11 @@
       <c r="D25" s="32"/>
       <c r="E25" s="63">
         <f ca="1">F24+1</f>
-        <v>44012</v>
+        <v>44017</v>
       </c>
       <c r="F25" s="63">
         <f ca="1">E25+4</f>
-        <v>44016</v>
+        <v>44021</v>
       </c>
       <c r="G25" s="17"/>
       <c r="H25" s="17">
@@ -3554,11 +3562,11 @@
       <c r="D26" s="32"/>
       <c r="E26" s="63">
         <f ca="1">E24</f>
-        <v>44006</v>
+        <v>44011</v>
       </c>
       <c r="F26" s="63">
         <f ca="1">E26+4</f>
-        <v>44010</v>
+        <v>44015</v>
       </c>
       <c r="G26" s="17"/>
       <c r="H26" s="17">
@@ -4166,6 +4174,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -4173,11 +4186,6 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D28">
     <cfRule type="dataBar" priority="14">
